--- a/files/SQL数据库/tur.xlsx
+++ b/files/SQL数据库/tur.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEDC8F1-3127-4B67-9E6E-3186912E70CB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6505610C-C949-4E5D-B484-90F2965BF3A9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="27975" windowHeight="8850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="98">
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -318,6 +314,10 @@
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name_tur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -665,72 +665,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1">
         <v>1500</v>
@@ -756,7 +756,7 @@
         <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="1">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>11.3</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1">
         <v>1550</v>
@@ -780,16 +780,16 @@
         <v>50</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q2" s="1">
         <v>178.85</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T2" s="1">
         <v>70</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>1500</v>
@@ -818,7 +818,7 @@
         <v>75</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="1">
         <v>3</v>
@@ -830,7 +830,7 @@
         <v>10.8</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M3" s="1">
         <v>1550</v>
@@ -842,16 +842,16 @@
         <v>50</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q3" s="1">
         <v>178.85</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T3" s="1">
         <v>59.5</v>
@@ -862,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>1500</v>
@@ -880,7 +880,7 @@
         <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -892,7 +892,7 @@
         <v>11.8</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="1">
         <v>1500</v>
@@ -904,16 +904,16 @@
         <v>50</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q4" s="1">
         <v>100</v>
       </c>
       <c r="R4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T4" s="1">
         <v>59.5</v>
@@ -924,7 +924,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>2000</v>
@@ -942,7 +942,7 @@
         <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1">
         <v>3</v>
@@ -954,7 +954,7 @@
         <v>12.5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="1">
         <v>2156</v>
@@ -966,16 +966,16 @@
         <v>50</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="1">
         <v>164</v>
       </c>
       <c r="R5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T5" s="1">
         <v>70</v>
@@ -986,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>2000</v>
@@ -1004,7 +1004,7 @@
         <v>80</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1">
         <v>3.5</v>
@@ -1016,7 +1016,7 @@
         <v>11.5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="1">
         <v>2000</v>
@@ -1028,16 +1028,16 @@
         <v>50</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="1">
         <v>153.4</v>
       </c>
       <c r="R6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T6" s="1">
         <v>59.5</v>
@@ -1048,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>2000</v>
@@ -1066,7 +1066,7 @@
         <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1">
         <v>3</v>
@@ -1078,7 +1078,7 @@
         <v>11.4</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M7" s="1">
         <v>2081</v>
@@ -1090,16 +1090,16 @@
         <v>50</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" s="1">
         <v>195.88</v>
       </c>
       <c r="R7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T7" s="1">
         <v>70</v>
@@ -1110,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>3000</v>
@@ -1128,7 +1128,7 @@
         <v>75</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1">
         <v>3</v>
@@ -1140,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M8" s="1">
         <v>3000</v>
@@ -1152,16 +1152,16 @@
         <v>50</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="1">
         <v>230</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T8" s="1">
         <v>70</v>
@@ -1172,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1">
         <v>2000</v>
@@ -1190,7 +1190,7 @@
         <v>80</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -1202,7 +1202,7 @@
         <v>11.4</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M9" s="1">
         <v>2000</v>
@@ -1214,19 +1214,19 @@
         <v>50</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="1">
         <v>198.88</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -1234,7 +1234,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>2000</v>
@@ -1252,7 +1252,7 @@
         <v>80</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
@@ -1264,7 +1264,7 @@
         <v>10.8</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M10" s="1">
         <v>2081</v>
@@ -1276,16 +1276,16 @@
         <v>50</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="1">
         <v>189.63499999999999</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T10" s="1">
         <v>59.5</v>
@@ -1296,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>2000</v>
@@ -1314,7 +1314,7 @@
         <v>80</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I11" s="1">
         <v>3</v>
@@ -1326,7 +1326,7 @@
         <v>11.3</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="1">
         <v>2000</v>
@@ -1338,16 +1338,16 @@
         <v>50</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="1">
         <v>179.5</v>
       </c>
       <c r="R11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T11" s="1">
         <v>70</v>
@@ -1358,7 +1358,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>2000</v>
@@ -1376,7 +1376,7 @@
         <v>80</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1">
         <v>3</v>
@@ -1388,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12" s="1">
         <v>2180</v>
@@ -1400,16 +1400,16 @@
         <v>50</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="1">
         <v>178.5</v>
       </c>
       <c r="R12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T12" s="1">
         <v>70</v>
@@ -1420,7 +1420,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>2000</v>
@@ -1438,7 +1438,7 @@
         <v>85</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="1">
         <v>3</v>
@@ -1450,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M13" s="1">
         <v>2100</v>
@@ -1462,19 +1462,19 @@
         <v>50</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q13" s="1">
         <v>210</v>
       </c>
       <c r="R13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="T13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -1482,7 +1482,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1">
         <v>2500</v>
@@ -1500,7 +1500,7 @@
         <v>80</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
@@ -1512,7 +1512,7 @@
         <v>10.3</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M14" s="1">
         <v>2600</v>
@@ -1524,16 +1524,16 @@
         <v>50</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="1">
         <v>225</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T14" s="1">
         <v>59.5</v>
@@ -1544,7 +1544,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1">
         <v>2000</v>
@@ -1562,7 +1562,7 @@
         <v>80</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="1">
         <v>3</v>
@@ -1574,7 +1574,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M15" s="1">
         <v>2100</v>
@@ -1586,16 +1586,16 @@
         <v>50</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="1">
         <v>231</v>
       </c>
       <c r="R15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T15" s="1">
         <v>70</v>
@@ -1606,7 +1606,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1">
         <v>2000</v>
@@ -1624,7 +1624,7 @@
         <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" s="1">
         <v>3</v>
@@ -1636,7 +1636,7 @@
         <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M16" s="1">
         <v>2600</v>
@@ -1648,16 +1648,16 @@
         <v>50</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="1">
         <v>163</v>
       </c>
       <c r="R16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T16" s="1">
         <v>49</v>
@@ -1668,7 +1668,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1">
         <v>2000</v>
@@ -1686,7 +1686,7 @@
         <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I17" s="1">
         <v>3</v>
@@ -1698,7 +1698,7 @@
         <v>9.6</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M17" s="1">
         <v>2100</v>
@@ -1710,16 +1710,16 @@
         <v>50</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T17" s="1">
         <v>52.5</v>
@@ -1730,7 +1730,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1">
         <v>2000</v>
@@ -1748,7 +1748,7 @@
         <v>80</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
@@ -1760,7 +1760,7 @@
         <v>10.1</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M18" s="1">
         <v>2100</v>
@@ -1772,19 +1772,19 @@
         <v>50</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="1">
         <v>185</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -1792,7 +1792,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1">
         <v>2000</v>
@@ -1810,7 +1810,7 @@
         <v>80</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="1">
         <v>3</v>
@@ -1822,7 +1822,7 @@
         <v>10</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M19" s="1">
         <v>2180</v>
@@ -1834,19 +1834,19 @@
         <v>50</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="1">
         <v>169.8</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -1854,7 +1854,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
         <v>2000</v>
@@ -1872,7 +1872,7 @@
         <v>85</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I20" s="1">
         <v>3.6</v>
@@ -1884,7 +1884,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20" s="1">
         <v>2100</v>
@@ -1896,16 +1896,16 @@
         <v>50</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="1">
         <v>185</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T20" s="1">
         <v>52.5</v>
@@ -1916,7 +1916,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1">
         <v>1500</v>
@@ -1934,7 +1934,7 @@
         <v>85</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I21" s="1">
         <v>2.5</v>
@@ -1946,7 +1946,7 @@
         <v>19</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M21" s="1">
         <v>1650</v>
@@ -1958,16 +1958,16 @@
         <v>50</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="1">
         <v>173</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T21" s="1">
         <v>52.5</v>
@@ -1978,7 +1978,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="1">
         <v>2500</v>
@@ -1996,7 +1996,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I22" s="1">
         <v>3</v>
@@ -2008,7 +2008,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M22" s="1">
         <v>2600</v>
@@ -2020,16 +2020,16 @@
         <v>50</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="1">
         <v>278.89999999999998</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T22" s="1">
         <v>52.5</v>
@@ -2040,7 +2040,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" s="1">
         <v>2000</v>
@@ -2058,7 +2058,7 @@
         <v>80</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I23" s="1">
         <v>3</v>
@@ -2070,7 +2070,7 @@
         <v>25</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M23" s="1">
         <v>2150</v>
@@ -2082,19 +2082,19 @@
         <v>50</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="1">
         <v>183.1</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
@@ -2102,7 +2102,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C24" s="1">
         <v>1800</v>
@@ -2120,7 +2120,7 @@
         <v>80</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I24" s="1">
         <v>3</v>
@@ -2132,7 +2132,7 @@
         <v>9.5</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M24" s="1">
         <v>1830</v>
@@ -2144,16 +2144,16 @@
         <v>50</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q24" s="1">
         <v>128.85</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T24" s="1">
         <v>52.5</v>
@@ -2164,7 +2164,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1">
         <v>2100</v>
@@ -2182,7 +2182,7 @@
         <v>80</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I25" s="1">
         <v>3</v>
@@ -2194,7 +2194,7 @@
         <v>9.5</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M25" s="1">
         <v>2200</v>
@@ -2206,16 +2206,16 @@
         <v>50</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q25" s="1">
         <v>166.2</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T25" s="1">
         <v>59.5</v>
@@ -2226,7 +2226,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1">
         <v>2500</v>
@@ -2244,7 +2244,7 @@
         <v>90</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I26" s="1">
         <v>3</v>
@@ -2256,7 +2256,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M26" s="1">
         <v>2600</v>
@@ -2268,16 +2268,16 @@
         <v>50</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q26" s="1">
         <v>257.45800000000003</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T26" s="1">
         <v>52.5</v>
@@ -2288,7 +2288,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1">
         <v>1500</v>
@@ -2306,7 +2306,7 @@
         <v>75</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I27" s="1">
         <v>2.5</v>
@@ -2318,7 +2318,7 @@
         <v>9.5</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M27" s="1">
         <v>1650</v>
@@ -2330,16 +2330,16 @@
         <v>50</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q27" s="1">
         <v>124.794</v>
       </c>
       <c r="R27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S27" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T27" s="1">
         <v>52.5</v>
@@ -2350,7 +2350,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1">
         <v>2000</v>
@@ -2368,7 +2368,7 @@
         <v>85</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I28" s="1">
         <v>2.5</v>
@@ -2380,7 +2380,7 @@
         <v>9</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M28" s="1">
         <v>2120</v>
@@ -2392,16 +2392,16 @@
         <v>50</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q28" s="1">
         <v>199.4</v>
       </c>
       <c r="R28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S28" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T28" s="1">
         <v>52.5</v>
@@ -2412,7 +2412,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1">
         <v>2000</v>
@@ -2430,7 +2430,7 @@
         <v>80</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I29" s="1">
         <v>2.5</v>
@@ -2442,7 +2442,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M29" s="1">
         <v>2600</v>
@@ -2454,16 +2454,16 @@
         <v>50</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q29" s="1">
         <v>198.5</v>
       </c>
       <c r="R29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="1">
         <v>52.5</v>
@@ -2474,7 +2474,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1">
         <v>2200</v>
@@ -2489,10 +2489,10 @@
         <v>13471</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I30" s="1">
         <v>3</v>
@@ -2504,7 +2504,7 @@
         <v>8.6</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M30" s="1">
         <v>2350</v>
@@ -2516,16 +2516,16 @@
         <v>50</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q30" s="1">
         <v>341</v>
       </c>
       <c r="R30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S30" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T30" s="1">
         <v>52.5</v>
@@ -2536,7 +2536,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="1">
         <v>2500</v>
@@ -2551,10 +2551,10 @@
         <v>13273</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I31" s="1">
         <v>2.5</v>
@@ -2566,7 +2566,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M31" s="1">
         <v>2650</v>
@@ -2578,16 +2578,16 @@
         <v>50</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q31" s="1">
         <v>300</v>
       </c>
       <c r="R31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S31" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T31" s="1">
         <v>52.5</v>
@@ -2598,7 +2598,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C32" s="1">
         <v>2200</v>
@@ -2613,10 +2613,10 @@
         <v>13478</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I32" s="1">
         <v>3</v>
@@ -2628,7 +2628,7 @@
         <v>9.5</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M32" s="1">
         <v>2350</v>
@@ -2640,16 +2640,16 @@
         <v>50</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q32" s="1">
         <v>326.70999999999998</v>
       </c>
       <c r="R32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S32" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T32" s="1">
         <v>52.5</v>
@@ -2660,7 +2660,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="1">
         <v>2000</v>
@@ -2678,7 +2678,7 @@
         <v>100</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I33" s="1">
         <v>3</v>
@@ -2690,7 +2690,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M33" s="1">
         <v>2150</v>
@@ -2702,16 +2702,16 @@
         <v>50</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q33" s="1">
         <v>256</v>
       </c>
       <c r="R33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T33" s="1">
         <v>52.5</v>
@@ -2722,7 +2722,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="1">
         <v>3000</v>
@@ -2740,7 +2740,7 @@
         <v>85</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I34" s="1">
         <v>2.5</v>
@@ -2752,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M34" s="1">
         <v>3250</v>
@@ -2764,19 +2764,19 @@
         <v>50</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q34" s="1">
         <v>267.3</v>
       </c>
       <c r="R34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="T34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -2784,7 +2784,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="1">
         <v>2000</v>
@@ -2799,10 +2799,10 @@
         <v>7850</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I35" s="1">
         <v>3</v>
@@ -2814,7 +2814,7 @@
         <v>12.5</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M35" s="1">
         <v>2100</v>
@@ -2826,17 +2826,17 @@
         <v>50</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S35" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="T35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -2844,7 +2844,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" s="1">
         <v>2000</v>
@@ -2862,7 +2862,7 @@
         <v>90</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I36" s="1">
         <v>3</v>
@@ -2874,7 +2874,7 @@
         <v>9</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M36" s="1">
         <v>2380</v>
@@ -2886,16 +2886,16 @@
         <v>50</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q36" s="1">
         <v>220</v>
       </c>
       <c r="R36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S36" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T36" s="1">
         <v>70</v>
@@ -2906,7 +2906,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1">
         <v>2500</v>
@@ -2921,10 +2921,10 @@
         <v>14314</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I37" s="1">
         <v>2.5</v>
@@ -2936,7 +2936,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M37" s="1">
         <v>2700</v>
@@ -2948,16 +2948,16 @@
         <v>50</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q37" s="1">
         <v>220</v>
       </c>
       <c r="R37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S37" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T37" s="1">
         <v>52.5</v>
@@ -2968,7 +2968,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1">
         <v>3000</v>
@@ -2983,10 +2983,10 @@
         <v>14314</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="1">
         <v>2.5</v>
@@ -2998,7 +2998,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M38" s="1">
         <v>3150</v>
@@ -3010,14 +3010,14 @@
         <v>50</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S38" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T38" s="1">
         <v>52.5</v>
@@ -3028,7 +3028,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1">
         <v>3000</v>
@@ -3043,10 +3043,10 @@
         <v>16505</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="1">
         <v>2.5</v>
@@ -3058,7 +3058,7 @@
         <v>9</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M39" s="1">
         <v>3250</v>
@@ -3070,16 +3070,16 @@
         <v>50</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q39" s="1">
         <v>263.64100000000002</v>
       </c>
       <c r="R39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S39" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S39" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T39" s="1">
         <v>52.5</v>
@@ -3090,7 +3090,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="1">
         <v>3200</v>
@@ -3105,10 +3105,10 @@
         <v>16505</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I40" s="1">
         <v>2.5</v>
@@ -3120,7 +3120,7 @@
         <v>9</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M40" s="1">
         <v>3450</v>
@@ -3132,16 +3132,16 @@
         <v>50</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q40" s="1">
         <v>263.64100000000002</v>
       </c>
       <c r="R40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S40" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T40" s="1">
         <v>52.5</v>
@@ -3152,7 +3152,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1">
         <v>2200</v>
@@ -3170,7 +3170,7 @@
         <v>90</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I41" s="1">
         <v>3</v>
@@ -3182,7 +3182,7 @@
         <v>9</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M41" s="1">
         <v>2260</v>
@@ -3194,16 +3194,16 @@
         <v>50</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q41" s="1">
         <v>233.33</v>
       </c>
       <c r="R41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S41" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T41" s="1">
         <v>52.5</v>
@@ -3214,7 +3214,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1">
         <v>3000</v>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I42" s="1">
         <v>3</v>
@@ -3242,7 +3242,7 @@
         <v>9.5</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M42" s="1">
         <v>3150</v>
@@ -3254,11 +3254,11 @@
         <v>50</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1">
@@ -3270,7 +3270,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="1">
         <v>3400</v>
@@ -3285,10 +3285,10 @@
         <v>15481</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I43" s="1">
         <v>2.5</v>
@@ -3300,7 +3300,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M43" s="1">
         <v>3630</v>
@@ -3312,16 +3312,16 @@
         <v>50</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q43" s="1">
         <v>340</v>
       </c>
       <c r="R43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S43" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T43" s="1">
         <v>52.5</v>
@@ -3332,7 +3332,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1">
         <v>3000</v>
@@ -3347,10 +3347,10 @@
         <v>14711</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I44" s="1">
         <v>2.5</v>
@@ -3362,7 +3362,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M44" s="1">
         <v>3630</v>
@@ -3374,16 +3374,16 @@
         <v>50</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q44" s="1">
         <v>340</v>
       </c>
       <c r="R44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S44" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T44" s="1">
         <v>52.5</v>
@@ -3394,7 +3394,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="1">
         <v>2500</v>
@@ -3409,10 +3409,10 @@
         <v>13273</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I45" s="1">
         <v>3</v>
@@ -3424,7 +3424,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M45" s="1">
         <v>2631</v>
@@ -3436,16 +3436,16 @@
         <v>50</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q45" s="1">
         <v>252.125</v>
       </c>
       <c r="R45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S45" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="T45" s="1">
         <v>52.5</v>
@@ -3456,7 +3456,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C46" s="1">
         <v>2500</v>
@@ -3471,10 +3471,10 @@
         <v>15394</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I46" s="1">
         <v>2.5</v>
@@ -3486,7 +3486,7 @@
         <v>8.5</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M46" s="1">
         <v>2650</v>
@@ -3500,10 +3500,10 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="T46" s="1">
         <v>52.5</v>
@@ -3514,7 +3514,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C47" s="1">
         <v>2500</v>
@@ -3529,10 +3529,10 @@
         <v>15615</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I47" s="1">
         <v>3</v>
@@ -3544,7 +3544,7 @@
         <v>9</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M47" s="1">
         <v>2600</v>
@@ -3558,10 +3558,10 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T47" s="1">
         <v>52.5</v>
@@ -3572,7 +3572,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>2500</v>
@@ -3587,10 +3587,10 @@
         <v>16505</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I48" s="1">
         <v>3</v>
@@ -3602,7 +3602,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M48" s="1">
         <v>2650</v>
@@ -3616,10 +3616,10 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T48" s="1">
         <v>52.5</v>
@@ -3630,7 +3630,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C49" s="1">
         <v>3300</v>
@@ -3648,7 +3648,7 @@
         <v>100</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I49" s="1">
         <v>2.5</v>
@@ -3660,7 +3660,7 @@
         <v>9.5</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1">
@@ -3672,10 +3672,10 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T49" s="1">
         <v>52.5</v>
